--- a/Chapter07/Chapter 7 - Table Feature.xlsx
+++ b/Chapter07/Chapter 7 - Table Feature.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="65555"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDB4C56-414E-41EA-9E41-FEEDFC4E9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9193020-0334-4F7A-B2EB-1B7DACDD07CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9831CE84-50EA-4E94-8153-D12FDC0424F1}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="844" xr2:uid="{9831CE84-50EA-4E94-8153-D12FDC0424F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="12" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="13" r:id="rId2"/>
     <sheet name="Table" sheetId="1" r:id="rId3"/>
-    <sheet name="Sorting Issues" sheetId="2" r:id="rId4"/>
-    <sheet name="Concatenating Text" sheetId="3" r:id="rId5"/>
-    <sheet name="Format as Table Command" sheetId="5" r:id="rId6"/>
-    <sheet name="Insert Table Command" sheetId="6" r:id="rId7"/>
-    <sheet name="Filtering and Slicing" sheetId="8" r:id="rId8"/>
+    <sheet name="Format as Table " sheetId="5" r:id="rId4"/>
+    <sheet name="Insert Table" sheetId="6" r:id="rId5"/>
+    <sheet name="Filtering" sheetId="8" r:id="rId6"/>
+    <sheet name="Slicer" sheetId="19" r:id="rId7"/>
+    <sheet name="Total Row" sheetId="20" r:id="rId8"/>
     <sheet name="PivotTable Data" sheetId="10" r:id="rId9"/>
     <sheet name="Self-Resizing Charts" sheetId="15" r:id="rId10"/>
     <sheet name="Self-Resizing Formulas" sheetId="16" r:id="rId11"/>
@@ -28,9 +28,13 @@
     <sheet name="Five Row Style" sheetId="9" r:id="rId13"/>
     <sheet name="AutoFormat As You Type" sheetId="18" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="Bridges">Table1[]</definedName>
+    <definedName name="Table8">'Self-Resizing Charts'!$B$4:$F$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId15"/>
+    <pivotCache cacheId="4" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,13 +76,7 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{882580A9-4BBF-40D8-8E5C-04FD42B81BF7}">
-      <text/>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{198DC3A0-FD08-4A72-B2DD-E4FBC8E55731}">
-      <text/>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{87E57E15-A6C1-49F3-96E9-583431B2E79F}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{8623A169-BAD1-44B7-8B02-3420037A275E}">
       <text/>
     </comment>
   </commentList>
@@ -86,19 +84,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>David Ringstrom</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{846D94D7-2C0E-42A7-84FB-D5E4387E9432}">
-      <text/>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Ringstrom</author>
@@ -118,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="93">
   <si>
     <t>Danyang–Kunshan Grand Bridge</t>
   </si>
@@ -198,9 +183,6 @@
     <t>Line 1, Wuhan Metro Bridge</t>
   </si>
   <si>
-    <t>World's Longest Bridges</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -249,27 +231,6 @@
     <t>Kuwait</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Ringstrom</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Initial</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Concatenating Text</t>
-  </si>
-  <si>
     <t>Length of Bridge (Feet)</t>
   </si>
   <si>
@@ -279,9 +240,6 @@
     <t>Type Of Bridge</t>
   </si>
   <si>
-    <t>Format as Table Command</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
@@ -312,9 +270,6 @@
     <t>Years</t>
   </si>
   <si>
-    <t>Sorting Issues - World's Longest Bridges</t>
-  </si>
-  <si>
     <t>Table - World's Longest Bridges</t>
   </si>
   <si>
@@ -330,18 +285,6 @@
     <t>PivotTables summarize lists of data into reports, in this case the data from the Table worksheet.</t>
   </si>
   <si>
-    <t>TEXTJOIN and CONCAT require Excel 2019 or later. Concatenating with ampersands works in any version of Excel.</t>
-  </si>
-  <si>
-    <t>Length of Bridge Meters</t>
-  </si>
-  <si>
-    <t>Type of Bridge</t>
-  </si>
-  <si>
-    <t>Filtering and Slicing - World's Longest Bridges</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -430,6 +373,15 @@
   </si>
   <si>
     <t>Formulas within Tables - Worlds Longest Bridges</t>
+  </si>
+  <si>
+    <t>Format as Table Command -  - World's Longest Bridges</t>
+  </si>
+  <si>
+    <t>Insert Table Command  -  - World's Longest Bridges</t>
+  </si>
+  <si>
+    <t>Filtering - World's Longest Bridges</t>
   </si>
 </sst>
 </file>
@@ -439,10 +391,10 @@
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,12 +449,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -742,7 +688,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -753,12 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -791,6 +731,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -845,7 +820,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -855,148 +829,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="36">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="9"/>
-        </top>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -1018,21 +876,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1073,6 +920,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1090,6 +956,12 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1141,6 +1013,25 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1341,18 +1232,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Five Row Style" pivot="0" count="8" xr9:uid="{4AA52132-4B37-4466-A2EF-6E19128971F6}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" size="5" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" size="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1365,9 +1245,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Ringstrom" refreshedDate="44688.582088888892" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{2DD06C0B-3D6A-4FB5-812C-C62DE23B308C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Ringstrom" refreshedDate="44761.975655208335" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{2DD06C0B-3D6A-4FB5-812C-C62DE23B308C}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table4"/>
+    <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Name" numFmtId="0">
@@ -1594,7 +1474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9115DEB-6B24-4A6C-922B-234E0236CE29}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" customListSort="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9115DEB-6B24-4A6C-922B-234E0236CE29}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" customListSort="0">
   <location ref="C3:J16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1699,42 +1579,42 @@
     <dataField name="Count of Type Of Bridge" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="36">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="33">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="32">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="31">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="30">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1751,12 +1631,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D314E0-A25A-4369-AA92-BBF0C0C3B9BC}" name="Table4" displayName="Table4" ref="B3:F28" totalsRowShown="0" headerRowDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69D314E0-A25A-4369-AA92-BBF0C0C3B9BC}" name="Table1" displayName="Table1" ref="B3:F28" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="B3:F28" xr:uid="{69D314E0-A25A-4369-AA92-BBF0C0C3B9BC}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8EA94423-4E44-4F83-9A41-A2C75C11BD36}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{441CE92F-C2F1-49AF-A44C-F314F0CB7EFF}" name="Length of Bridge (Feet)" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{0CF29B7B-0DE7-43C7-8A90-6C8007B37A90}" name="Length of Bridge (Meters)" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{441CE92F-C2F1-49AF-A44C-F314F0CB7EFF}" name="Length of Bridge (Feet)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{0CF29B7B-0DE7-43C7-8A90-6C8007B37A90}" name="Length of Bridge (Meters)" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{8440CA3F-E232-4459-BCF3-98D9E5A225A0}" name="Country"/>
     <tableColumn id="5" xr3:uid="{B4D9D946-F6E3-42E9-BC25-8EEFC3B58518}" name="Type Of Bridge"/>
   </tableColumns>
@@ -1765,11 +1645,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AC220F6-E151-4104-A94E-2A2E432DE4B2}" name="Bridges" displayName="Bridges" ref="B3:F29" totalsRowCount="1" headerRowDxfId="17" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AC220F6-E151-4104-A94E-2A2E432DE4B2}" name="Table2" displayName="Table2" ref="B3:F28" headerRowDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="B3:F28" xr:uid="{4AC220F6-E151-4104-A94E-2A2E432DE4B2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FE573C26-F445-4A0E-9FBE-201550E1FB08}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{998D6F1E-C15A-40D4-BCC3-21EB645FB8C3}" name="Length of Bridge (Feet)" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{0B4DA755-9DED-4C34-8744-4FE10CC18BE9}" name="Length of Bridge (Meters)" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{998D6F1E-C15A-40D4-BCC3-21EB645FB8C3}" name="Length of Bridge (Feet)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0B4DA755-9DED-4C34-8744-4FE10CC18BE9}" name="Length of Bridge (Meters)" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{4540AB4D-59EE-409A-B2F6-22D87A824A01}" name="Country"/>
     <tableColumn id="5" xr3:uid="{C6E85747-5923-4968-8BD2-5144C4D75F26}" name="Type Of Bridge" totalsRowFunction="count"/>
   </tableColumns>
@@ -1778,52 +1659,69 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{543A6BEA-504A-44EB-9F70-99796627EB16}" name="Table17" displayName="Table17" ref="E3:F17" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="E3:F17" xr:uid="{543A6BEA-504A-44EB-9F70-99796627EB16}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{048F9760-7189-4681-A329-FEC8F90E3BFB}" name="Country"/>
-    <tableColumn id="2" xr3:uid="{28B47FC6-C3B7-4D5D-A33D-D4DD4066190F}" name="Bridge Name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44724B15-46D4-4DD4-85B5-C43921595761}" name="Table3" displayName="Table3" ref="B3:F28" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="B3:F28" xr:uid="{4AC220F6-E151-4104-A94E-2A2E432DE4B2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3DB38332-4101-4529-991F-1F1318C84B18}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{36EAC668-92F1-4821-8DE2-E5D39CF36DF7}" name="Length of Bridge (Feet)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{120CF0D5-D54D-42BF-A180-5D68E29CD1CD}" name="Length of Bridge (Meters)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{AFFC41A3-A5DE-4E4E-8BBC-BD7B88A31224}" name="Country"/>
+    <tableColumn id="5" xr3:uid="{FCB376E3-D012-4A3D-B1F4-2B2A57A0A93A}" name="Type Of Bridge" totalsRowFunction="count"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7E7C34FC-13DE-477C-8003-67807C3285EB}" name="Bridges13" displayName="Bridges13" ref="B3:H29" totalsRowCount="1" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E3024354-088E-49F8-B1AF-974DAC20BCE9}" name="Table4" displayName="Table4" ref="B3:F28" headerRowDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="B3:F28" xr:uid="{4AC220F6-E151-4104-A94E-2A2E432DE4B2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4FD0A03E-56C6-4FB2-8AA7-2B71009C7365}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{0C4F9A13-99FA-4494-81D1-1B9CBBECC6B3}" name="Length of Bridge (Feet)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{03228ED7-111A-468B-B1D2-0E850685E085}" name="Length of Bridge (Meters)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E8E72012-0423-4899-8600-2FE4E9CA2864}" name="Country"/>
+    <tableColumn id="5" xr3:uid="{C3ECD3F4-9A07-496D-9282-4F654075AD63}" name="Type Of Bridge" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7E7C34FC-13DE-477C-8003-67807C3285EB}" name="Table5" displayName="Table5" ref="B3:H29" totalsRowCount="1" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B3:H28" xr:uid="{7E7C34FC-13DE-477C-8003-67807C3285EB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{216A6404-BA98-4D7E-AFD4-480A562D7716}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{3BCEA649-D07F-4505-8C8C-6D17FB8A270E}" name="Length of Bridge (Feet)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9B34685A-2CE6-479B-B001-060224296644}" name="Length of Bridge (Meters)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3BCEA649-D07F-4505-8C8C-6D17FB8A270E}" name="Length of Bridge (Feet)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9B34685A-2CE6-479B-B001-060224296644}" name="Length of Bridge (Meters)" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{80A3C190-2D0C-4014-B346-C05F05BB2F3B}" name="Country"/>
     <tableColumn id="5" xr3:uid="{177EC916-1618-4FB8-B0FB-E45ABFB1EC36}" name="Type Of Bridge" totalsRowFunction="count"/>
-    <tableColumn id="6" xr3:uid="{385A0E33-41E8-4867-A89F-DAF6AAC72232}" name="Length In Miles" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{385A0E33-41E8-4867-A89F-DAF6AAC72232}" name="Length In Miles" dataDxfId="5">
       <calculatedColumnFormula>C4/5280</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B4E8F44B-E973-4D20-852A-24F1C3C09C08}" name="Length in Kilometers" dataDxfId="12" dataCellStyle="Comma">
-      <calculatedColumnFormula>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{B4E8F44B-E973-4D20-852A-24F1C3C09C08}" name="Length in Kilometers" dataDxfId="4" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{79E5DBA6-4208-4BFC-8CC6-926F4AE734ED}" name="Table24" displayName="Table24" ref="B3:F28" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{79E5DBA6-4208-4BFC-8CC6-926F4AE734ED}" name="Table6" displayName="Table6" ref="B3:F28" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="B3:F28" xr:uid="{4AC220F6-E151-4104-A94E-2A2E432DE4B2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C6AD3B87-D348-4102-9804-87EEDF4B70EC}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{072C3769-5AED-4631-81F8-474EEA4ED953}" name="Length of Bridge (Feet)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{56B25B8F-E69A-411B-8892-6A7A11FE88B5}" name="Length of Bridge (Meters)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{072C3769-5AED-4631-81F8-474EEA4ED953}" name="Length of Bridge (Feet)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{56B25B8F-E69A-411B-8892-6A7A11FE88B5}" name="Length of Bridge (Meters)" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{67342E42-A32B-414E-9038-34B3A358B4E9}" name="Country"/>
     <tableColumn id="5" xr3:uid="{18CC8BF3-3EE9-4299-8BA3-7C5C1966FBD7}" name="Type Of Bridge"/>
   </tableColumns>
-  <tableStyleInfo name="Five Row Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7F74636E-E02A-4B20-A604-16134706752A}" name="Table14" displayName="Table14" ref="C3:C8" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7F74636E-E02A-4B20-A604-16134706752A}" name="Table7" displayName="Table7" ref="C3:C8" totalsRowShown="0">
   <autoFilter ref="C3:C8" xr:uid="{7F74636E-E02A-4B20-A604-16134706752A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{8EE3F30B-A52E-4F18-857C-9C10F4E7B05B}" name="Colors"/>
@@ -2143,49 +2041,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="C3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="25">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="C4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="24">
         <v>10</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="22" t="s">
-        <v>62</v>
+      <c r="C5" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="3">
         <v>500000</v>
@@ -2198,129 +2096,129 @@
     </row>
     <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="D7" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="D7" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <f>-PMT(D3/12,D4*12,D5)</f>
         <v>4885.9514482592776</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <f>D4</f>
         <v>10</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <f>D8+5</f>
         <v>15</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <f t="shared" ref="F8:H8" si="0">E8+5</f>
         <v>20</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="26">
         <f>D3</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <f t="dataTable" ref="D9:H12" dt2D="1" dtr="1" r1="D4" r2="D3" ca="1"/>
         <v>4885.9514482592776</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>3513.3438445994148</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>2436.5811266999917</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>1862.7061598798809</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>1579.4786331067569</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="28">
+      <c r="B10" s="56"/>
+      <c r="C10" s="26">
         <f>C9+0.005</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>1747.3126431217197</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>1712.7262277515717</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>1662.7976421545836</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>1618.1626343957023</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>1588.3387644653635</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="28">
+      <c r="B11" s="56"/>
+      <c r="C11" s="26">
         <f t="shared" ref="C11:C12" si="1">C10+0.005</f>
         <v>4.2499999999999996E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>1989.9845006449136</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>1987.6917437872632</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>1984.4646425496078</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <v>1981.7649993662305</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <v>1980.1726257472199</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="28">
+      <c r="B12" s="56"/>
+      <c r="C12" s="26">
         <f t="shared" si="1"/>
         <v>4.7499999999999994E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>2604.2880096944332</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>2604.2555140394015</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>2604.2142996826237</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="18">
         <v>2604.185365254139</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <v>2604.1720412809909</v>
       </c>
     </row>
@@ -2329,24 +2227,24 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2374,248 +2272,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="B1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="37"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="48">
+        <v>63</v>
+      </c>
+      <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4">
         <v>200</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="48">
+        <v>64</v>
+      </c>
+      <c r="C5">
         <v>400</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5">
         <v>500</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2644,11 +2406,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62897774-ABF8-4065-84B6-43C66A02624D}">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2660,184 +2420,175 @@
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="67" t="s">
+      <c r="C3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="81" t="str">
+        <v>85</v>
+      </c>
+      <c r="C4" s="13" t="str">
         <f>_xlfn.XLOOKUP(B4,E4:E9,F4:F9)</f>
         <v>Kita-Yaita Viaduct Tohoku Shinkansen</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48" t="s">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48" t="s">
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2845,9 +2596,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -2869,53 +2617,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>85</v>
+      <c r="F3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -2929,31 +2671,31 @@
         <v>164800</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="44">
         <f t="shared" ref="G4:G28" si="0">C4/5280</f>
         <v>102.40530303030303</v>
       </c>
-      <c r="H4" s="83">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H4" s="45">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>164.8</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="15">
-        <f>COUNTIF(Bridges[Length of Bridge (Feet)],J4)</f>
+      <c r="I4" s="39"/>
+      <c r="J4" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="13">
+        <f>COUNTIF(Table2[Length of Bridge (Feet)],J4)</f>
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>516132</v>
@@ -2962,17 +2704,17 @@
         <v>157317</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="40">
         <f t="shared" si="0"/>
         <v>97.752272727272725</v>
       </c>
-      <c r="H5" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H5" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>157.31700000000001</v>
       </c>
     </row>
@@ -2987,23 +2729,23 @@
         <v>114424</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="40">
         <f t="shared" si="0"/>
         <v>71.099810606060601</v>
       </c>
-      <c r="H6" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H6" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>114.42400000000001</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>373000</v>
@@ -3012,23 +2754,23 @@
         <v>113700</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="40">
         <f t="shared" si="0"/>
         <v>70.643939393939391</v>
       </c>
-      <c r="H7" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H7" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>113.7</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>380200</v>
@@ -3037,17 +2779,17 @@
         <v>115900</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="40">
         <f t="shared" si="0"/>
         <v>72.007575757575751</v>
       </c>
-      <c r="H8" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H8" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>115.9</v>
       </c>
     </row>
@@ -3062,17 +2804,17 @@
         <v>79732</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="40">
         <f t="shared" si="0"/>
         <v>49.543181818181822</v>
       </c>
-      <c r="H9" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H9" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>79.731999999999999</v>
       </c>
     </row>
@@ -3087,17 +2829,17 @@
         <v>54000</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="40">
         <f t="shared" si="0"/>
         <v>33.522727272727273</v>
       </c>
-      <c r="H10" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H10" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>54</v>
       </c>
     </row>
@@ -3112,17 +2854,17 @@
         <v>48153</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="40">
         <f t="shared" si="0"/>
         <v>29.920833333333334</v>
       </c>
-      <c r="H11" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H11" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>48.152999999999999</v>
       </c>
     </row>
@@ -3137,17 +2879,17 @@
         <v>39200</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="40">
         <f t="shared" si="0"/>
         <v>24.356060606060606</v>
       </c>
-      <c r="H12" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H12" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>39.200000000000003</v>
       </c>
     </row>
@@ -3162,17 +2904,17 @@
         <v>38442</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="40">
         <f t="shared" si="0"/>
         <v>23.886742424242424</v>
       </c>
-      <c r="H13" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H13" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>38.442</v>
       </c>
     </row>
@@ -3187,17 +2929,17 @@
         <v>37788</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="40">
         <f t="shared" si="0"/>
         <v>23.48030303030303</v>
       </c>
-      <c r="H14" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H14" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>37.787999999999997</v>
       </c>
     </row>
@@ -3212,17 +2954,17 @@
         <v>36710</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="40">
         <f t="shared" si="0"/>
         <v>22.810606060606062</v>
       </c>
-      <c r="H15" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H15" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>36.71</v>
       </c>
     </row>
@@ -3237,23 +2979,23 @@
         <v>36400</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="40">
         <f t="shared" si="0"/>
         <v>22.613636363636363</v>
       </c>
-      <c r="H16" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H16" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>36.4</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>118570</v>
@@ -3262,23 +3004,23 @@
         <v>36140</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="40">
         <f t="shared" si="0"/>
         <v>22.456439393939394</v>
       </c>
-      <c r="H17" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H17" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>36.14</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>117493</v>
@@ -3287,17 +3029,17 @@
         <v>35812</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="40">
         <f t="shared" si="0"/>
         <v>22.252462121212123</v>
       </c>
-      <c r="H18" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H18" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>35.811999999999998</v>
       </c>
     </row>
@@ -3312,17 +3054,17 @@
         <v>35673</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="40">
         <f t="shared" si="0"/>
         <v>22.166098484848487</v>
       </c>
-      <c r="H19" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H19" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>35.673000000000002</v>
       </c>
     </row>
@@ -3337,17 +3079,17 @@
         <v>35660</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="40">
         <f t="shared" si="0"/>
         <v>22.157196969696969</v>
       </c>
-      <c r="H20" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H20" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>35.659999999999997</v>
       </c>
     </row>
@@ -3362,17 +3104,17 @@
         <v>34600</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="40">
         <f t="shared" si="0"/>
         <v>21.496212121212121</v>
       </c>
-      <c r="H21" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H21" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>34.6</v>
       </c>
     </row>
@@ -3387,17 +3129,17 @@
         <v>32500</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="40">
         <f t="shared" si="0"/>
         <v>20.189393939393938</v>
       </c>
-      <c r="H22" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H22" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>32.5</v>
       </c>
     </row>
@@ -3412,17 +3154,17 @@
         <v>30000</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="40">
         <f t="shared" si="0"/>
         <v>18.560606060606062</v>
       </c>
-      <c r="H23" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H23" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>30</v>
       </c>
     </row>
@@ -3437,23 +3179,23 @@
         <v>29908</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="40">
         <f t="shared" si="0"/>
         <v>18.583901515151513</v>
       </c>
-      <c r="H24" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H24" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>29.908000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>97795</v>
@@ -3462,17 +3204,17 @@
         <v>29808</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="40">
         <f t="shared" si="0"/>
         <v>18.521780303030305</v>
       </c>
-      <c r="H25" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H25" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>29.808</v>
       </c>
     </row>
@@ -3487,23 +3229,23 @@
         <v>29290</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="40">
         <f t="shared" si="0"/>
         <v>18.200757575757574</v>
       </c>
-      <c r="H26" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H26" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>29.29</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>93645</v>
@@ -3512,17 +3254,17 @@
         <v>28543</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="40">
         <f t="shared" si="0"/>
         <v>17.735795454545453</v>
       </c>
-      <c r="H27" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H27" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>28.542999999999999</v>
       </c>
     </row>
@@ -3536,27 +3278,27 @@
       <c r="D28" s="3">
         <v>26707</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>27</v>
+      <c r="E28" t="s">
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="40">
         <f t="shared" si="0"/>
         <v>16.594886363636363</v>
       </c>
-      <c r="H28" s="77">
-        <f>Bridges13[[#This Row],[Length of Bridge (Meters)]]/1000</f>
+      <c r="H28" s="41">
+        <f>Table5[[#This Row],[Length of Bridge (Meters)]]/1000</f>
         <v>26.707000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F29">
-        <f>SUBTOTAL(103,Bridges13[Type Of Bridge])</f>
+        <f>SUBTOTAL(103,Table5[Type Of Bridge])</f>
         <v>25</v>
       </c>
     </row>
@@ -3590,47 +3332,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>52</v>
+      <c r="F3" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="42">
         <v>540700</v>
       </c>
       <c r="D4" s="3">
         <v>164800</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -3638,16 +3380,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="79">
+        <v>27</v>
+      </c>
+      <c r="C5" s="42">
         <v>516132</v>
       </c>
       <c r="D5" s="3">
         <v>157317</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -3657,14 +3399,14 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="42">
         <v>375407</v>
       </c>
       <c r="D6" s="3">
         <v>114424</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -3672,16 +3414,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="79">
+        <v>30</v>
+      </c>
+      <c r="C7" s="42">
         <v>373000</v>
       </c>
       <c r="D7" s="3">
         <v>113700</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -3689,16 +3431,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="79">
+        <v>31</v>
+      </c>
+      <c r="C8" s="42">
         <v>380200</v>
       </c>
       <c r="D8" s="3">
         <v>115900</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -3708,14 +3450,14 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="42">
         <v>261588</v>
       </c>
       <c r="D9" s="3">
         <v>79732</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -3725,14 +3467,14 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="42">
         <v>177000</v>
       </c>
       <c r="D10" s="3">
         <v>54000</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -3742,14 +3484,14 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="42">
         <v>157982</v>
       </c>
       <c r="D11" s="3">
         <v>48153</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -3759,14 +3501,14 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="42">
         <v>128600</v>
       </c>
       <c r="D12" s="3">
         <v>39200</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -3776,14 +3518,14 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="42">
         <v>126122</v>
       </c>
       <c r="D13" s="3">
         <v>38442</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -3793,14 +3535,14 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="42">
         <v>123976</v>
       </c>
       <c r="D14" s="3">
         <v>37788</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -3810,14 +3552,14 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="42">
         <v>120440</v>
       </c>
       <c r="D15" s="3">
         <v>36710</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -3827,14 +3569,14 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="42">
         <v>119400</v>
       </c>
       <c r="D16" s="3">
         <v>36400</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -3842,16 +3584,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="79">
+        <v>32</v>
+      </c>
+      <c r="C17" s="42">
         <v>118570</v>
       </c>
       <c r="D17" s="3">
         <v>36140</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -3859,16 +3601,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="79">
+        <v>33</v>
+      </c>
+      <c r="C18" s="42">
         <v>117493</v>
       </c>
       <c r="D18" s="3">
         <v>35812</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -3878,14 +3620,14 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="42">
         <v>117037</v>
       </c>
       <c r="D19" s="3">
         <v>35673</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -3895,14 +3637,14 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="42">
         <v>116990</v>
       </c>
       <c r="D20" s="3">
         <v>35660</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -3912,14 +3654,14 @@
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="42">
         <v>113500</v>
       </c>
       <c r="D21" s="3">
         <v>34600</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -3929,14 +3671,14 @@
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="79">
+      <c r="C22" s="42">
         <v>106600</v>
       </c>
       <c r="D22" s="3">
         <v>32500</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -3946,14 +3688,14 @@
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="42">
         <v>98000</v>
       </c>
       <c r="D23" s="3">
         <v>30000</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -3963,14 +3705,14 @@
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="42">
         <v>98123</v>
       </c>
       <c r="D24" s="3">
         <v>29908</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -3978,16 +3720,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="79">
+        <v>36</v>
+      </c>
+      <c r="C25" s="42">
         <v>97795</v>
       </c>
       <c r="D25" s="3">
         <v>29808</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -3997,14 +3739,14 @@
       <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="42">
         <v>96100</v>
       </c>
       <c r="D26" s="3">
         <v>29290</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -4012,16 +3754,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="79">
+        <v>39</v>
+      </c>
+      <c r="C27" s="42">
         <v>93645</v>
       </c>
       <c r="D27" s="3">
         <v>28543</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
@@ -4031,14 +3773,14 @@
       <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="42">
         <v>87621</v>
       </c>
       <c r="D28" s="3">
         <v>26707</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>27</v>
+      <c r="E28" t="s">
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
@@ -4059,7 +3801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697A4FC6-B9D7-4002-A36C-052E88150775}">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4067,128 +3811,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="48"/>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="48"/>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="48"/>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="48"/>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="48"/>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="48"/>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="48"/>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="48"/>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4223,305 +3950,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>56</v>
+      <c r="J4" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54">
-        <v>1</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55">
+      <c r="C5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70">
+        <v>1</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71">
         <v>1</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="56">
+      <c r="C6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="72">
         <v>3</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="65">
         <v>7</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49">
-        <v>1</v>
-      </c>
-      <c r="H6" s="49">
-        <v>1</v>
-      </c>
-      <c r="I6" s="49">
-        <v>1</v>
-      </c>
-      <c r="J6" s="50">
+      <c r="F6" s="65"/>
+      <c r="G6" s="65">
+        <v>1</v>
+      </c>
+      <c r="H6" s="65">
+        <v>1</v>
+      </c>
+      <c r="I6" s="65">
+        <v>1</v>
+      </c>
+      <c r="J6" s="66">
         <v>13</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
-        <v>1</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50">
+      <c r="C7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65">
+        <v>1</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66">
         <v>1</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49">
-        <v>1</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50">
+      <c r="C8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65">
+        <v>1</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66">
         <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="49">
-        <v>1</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50">
+      <c r="C9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="65">
+        <v>1</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66">
         <v>1</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49">
-        <v>1</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50">
+      <c r="C10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65">
+        <v>1</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66">
         <v>1</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49">
-        <v>1</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50">
+      <c r="C11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65">
+        <v>1</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66">
         <v>1</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="56">
-        <v>1</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50">
+      <c r="C12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="72">
+        <v>1</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66">
         <v>1</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="49">
-        <v>1</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50">
+      <c r="C13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="65">
+        <v>1</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66">
         <v>1</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="56">
-        <v>1</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50">
+      <c r="C14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="72">
+        <v>1</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66">
         <v>1</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49">
+      <c r="C15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65">
         <v>3</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50">
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66">
         <v>3</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="57">
+      <c r="C16" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="73">
         <v>5</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="67">
         <v>9</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="67">
         <v>6</v>
       </c>
-      <c r="G16" s="51">
-        <v>1</v>
-      </c>
-      <c r="H16" s="51">
+      <c r="G16" s="67">
+        <v>1</v>
+      </c>
+      <c r="H16" s="67">
         <v>3</v>
       </c>
-      <c r="I16" s="51">
-        <v>1</v>
-      </c>
-      <c r="J16" s="52">
+      <c r="I16" s="67">
+        <v>1</v>
+      </c>
+      <c r="J16" s="68">
         <v>25</v>
       </c>
       <c r="K16" s="2"/>
@@ -4531,18 +4258,18 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
+      <c r="B18" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4570,33 +4297,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>52</v>
+      <c r="F3" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -4610,7 +4337,7 @@
         <v>164800</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -4618,7 +4345,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>516132</v>
@@ -4627,7 +4354,7 @@
         <v>157317</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -4644,7 +4371,7 @@
         <v>114424</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -4652,7 +4379,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>373000</v>
@@ -4661,7 +4388,7 @@
         <v>113700</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -4669,7 +4396,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>380200</v>
@@ -4678,7 +4405,7 @@
         <v>115900</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -4695,7 +4422,7 @@
         <v>79732</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -4712,7 +4439,7 @@
         <v>54000</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -4729,7 +4456,7 @@
         <v>48153</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -4746,7 +4473,7 @@
         <v>39200</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -4763,7 +4490,7 @@
         <v>38442</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -4780,7 +4507,7 @@
         <v>37788</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -4797,7 +4524,7 @@
         <v>36710</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -4814,7 +4541,7 @@
         <v>36400</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -4822,7 +4549,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>118570</v>
@@ -4831,7 +4558,7 @@
         <v>36140</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -4839,7 +4566,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>117493</v>
@@ -4848,7 +4575,7 @@
         <v>35812</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -4865,7 +4592,7 @@
         <v>35673</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -4882,7 +4609,7 @@
         <v>35660</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -4899,7 +4626,7 @@
         <v>34600</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -4916,7 +4643,7 @@
         <v>32500</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -4933,7 +4660,7 @@
         <v>30000</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -4950,7 +4677,7 @@
         <v>29908</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -4958,7 +4685,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>97795</v>
@@ -4967,7 +4694,7 @@
         <v>29808</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -4984,7 +4711,7 @@
         <v>29290</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -4992,7 +4719,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>93645</v>
@@ -5001,7 +4728,7 @@
         <v>28543</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
@@ -5018,7 +4745,7 @@
         <v>26707</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
@@ -5036,615 +4763,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8D0ABB-81E0-47DA-8D54-DE44C443194F}">
-  <dimension ref="B1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>540700</v>
-      </c>
-      <c r="D4" s="3">
-        <v>164800</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3">
-        <v>516132</v>
-      </c>
-      <c r="D5" s="3">
-        <v>157317</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3">
-        <v>375407</v>
-      </c>
-      <c r="D6" s="3">
-        <v>114424</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3">
-        <v>373000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>113700</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3">
-        <v>380200</v>
-      </c>
-      <c r="D8" s="3">
-        <v>115900</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>261588</v>
-      </c>
-      <c r="D9" s="3">
-        <v>79732</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>177000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>54000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>157982</v>
-      </c>
-      <c r="D11" s="3">
-        <v>48153</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>128600</v>
-      </c>
-      <c r="D12" s="3">
-        <v>39200</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
-        <v>126122</v>
-      </c>
-      <c r="D13" s="3">
-        <v>38442</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3">
-        <v>123976</v>
-      </c>
-      <c r="D14" s="3">
-        <v>37788</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>120440</v>
-      </c>
-      <c r="D15" s="3">
-        <v>36710</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>119400</v>
-      </c>
-      <c r="D16" s="3">
-        <v>36400</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3">
-        <v>118570</v>
-      </c>
-      <c r="D17" s="3">
-        <v>36140</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3">
-        <v>117493</v>
-      </c>
-      <c r="D18" s="3">
-        <v>35812</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3">
-        <v>117037</v>
-      </c>
-      <c r="D19" s="3">
-        <v>35673</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3">
-        <v>116990</v>
-      </c>
-      <c r="D20" s="3">
-        <v>35660</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3">
-        <v>113500</v>
-      </c>
-      <c r="D21" s="3">
-        <v>34600</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3">
-        <v>106600</v>
-      </c>
-      <c r="D22" s="3">
-        <v>32500</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3">
-        <v>98000</v>
-      </c>
-      <c r="D23" s="3">
-        <v>30000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>98123</v>
-      </c>
-      <c r="D24" s="3">
-        <v>29908</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3">
-        <v>97795</v>
-      </c>
-      <c r="D25" s="3">
-        <v>29808</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3">
-        <v>96100</v>
-      </c>
-      <c r="D26" s="3">
-        <v>29290</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3">
-        <v>93645</v>
-      </c>
-      <c r="D27" s="3">
-        <v>28543</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5">
-        <v>87621</v>
-      </c>
-      <c r="D28" s="5">
-        <v>26707</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B3:B3)</f>
-        <v>Name</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="e">
-        <f>TRIM(#REF!&amp;" "&amp;#REF!&amp;" "&amp;B3)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E70E2C-5BE9-4BEF-88F4-69D77CE19558}">
-  <dimension ref="B1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="15" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B4:D4)</f>
-        <v>David Ringstrom</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="15" t="str">
-        <f>TRIM(B5&amp;" "&amp;C5&amp;" "&amp;D5)</f>
-        <v>David Ringstrom</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="15" t="str">
-        <f>TRIM(_xlfn.CONCAT(B6," ",C6," ",D6))</f>
-        <v>David Ringstrom</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494C311D-6F11-4A7E-9766-C602735CF018}">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5657,33 +4781,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>52</v>
+      <c r="F3" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -5697,7 +4821,7 @@
         <v>164800</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -5705,7 +4829,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>516132</v>
@@ -5714,7 +4838,7 @@
         <v>157317</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -5731,7 +4855,7 @@
         <v>114424</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
@@ -5739,7 +4863,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>373000</v>
@@ -5748,7 +4872,7 @@
         <v>113700</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
@@ -5756,7 +4880,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>380200</v>
@@ -5765,7 +4889,7 @@
         <v>115900</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
@@ -5782,7 +4906,7 @@
         <v>79732</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -5799,7 +4923,7 @@
         <v>54000</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
@@ -5816,7 +4940,7 @@
         <v>48153</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
@@ -5833,7 +4957,7 @@
         <v>39200</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
@@ -5850,7 +4974,7 @@
         <v>38442</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -5867,7 +4991,7 @@
         <v>37788</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -5884,7 +5008,7 @@
         <v>36710</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
@@ -5901,7 +5025,7 @@
         <v>36400</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -5909,7 +5033,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>118570</v>
@@ -5918,7 +5042,7 @@
         <v>36140</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -5926,7 +5050,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>117493</v>
@@ -5935,13 +5059,13 @@
         <v>35812</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -5955,7 +5079,7 @@
         <v>35673</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>4</v>
@@ -5972,7 +5096,7 @@
         <v>35660</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
@@ -5989,7 +5113,7 @@
         <v>34600</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -6006,7 +5130,7 @@
         <v>32500</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -6023,7 +5147,7 @@
         <v>30000</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -6040,7 +5164,7 @@
         <v>29908</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -6048,7 +5172,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>97795</v>
@@ -6057,7 +5181,7 @@
         <v>29808</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -6074,7 +5198,7 @@
         <v>29290</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -6082,7 +5206,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>93645</v>
@@ -6091,7 +5215,7 @@
         <v>28543</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -6108,7 +5232,7 @@
         <v>26707</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>21</v>
@@ -6122,50 +5246,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8239448-226D-4986-8EBE-FA960DD21F0A}">
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>52</v>
+      <c r="F3" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -6179,7 +5305,7 @@
         <v>164800</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -6187,7 +5313,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>516132</v>
@@ -6196,7 +5322,7 @@
         <v>157317</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -6213,7 +5339,7 @@
         <v>114424</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
@@ -6221,7 +5347,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>373000</v>
@@ -6230,7 +5356,7 @@
         <v>113700</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
@@ -6238,7 +5364,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>380200</v>
@@ -6247,7 +5373,7 @@
         <v>115900</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
@@ -6264,7 +5390,7 @@
         <v>79732</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -6281,7 +5407,7 @@
         <v>54000</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
@@ -6298,7 +5424,7 @@
         <v>48153</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
@@ -6315,7 +5441,7 @@
         <v>39200</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
@@ -6332,7 +5458,7 @@
         <v>38442</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -6349,7 +5475,7 @@
         <v>37788</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -6366,7 +5492,7 @@
         <v>36710</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
@@ -6383,7 +5509,7 @@
         <v>36400</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -6391,7 +5517,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>118570</v>
@@ -6400,7 +5526,7 @@
         <v>36140</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -6408,7 +5534,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>117493</v>
@@ -6417,7 +5543,7 @@
         <v>35812</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -6434,7 +5560,7 @@
         <v>35673</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>4</v>
@@ -6451,7 +5577,7 @@
         <v>35660</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
@@ -6468,7 +5594,7 @@
         <v>34600</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -6485,7 +5611,7 @@
         <v>32500</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -6502,7 +5628,7 @@
         <v>30000</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -6519,7 +5645,7 @@
         <v>29908</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -6527,7 +5653,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>97795</v>
@@ -6536,7 +5662,7 @@
         <v>29808</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -6553,7 +5679,7 @@
         <v>29290</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -6561,7 +5687,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>93645</v>
@@ -6570,7 +5696,7 @@
         <v>28543</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -6587,7 +5713,7 @@
         <v>26707</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>21</v>
@@ -6601,9 +5727,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E428C25-140E-4596-BCA1-20C52C9868A7}">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6618,33 +5744,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>52</v>
+      <c r="F3" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -6658,7 +5784,7 @@
         <v>164800</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -6666,7 +5792,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>516132</v>
@@ -6675,7 +5801,7 @@
         <v>157317</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -6692,7 +5818,7 @@
         <v>114424</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -6700,7 +5826,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>373000</v>
@@ -6709,7 +5835,7 @@
         <v>113700</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -6717,7 +5843,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>380200</v>
@@ -6726,7 +5852,7 @@
         <v>115900</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -6743,7 +5869,7 @@
         <v>79732</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -6760,7 +5886,7 @@
         <v>54000</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -6777,7 +5903,7 @@
         <v>48153</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -6794,7 +5920,7 @@
         <v>39200</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -6811,7 +5937,7 @@
         <v>38442</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -6828,7 +5954,7 @@
         <v>37788</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -6845,7 +5971,7 @@
         <v>36710</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -6862,7 +5988,7 @@
         <v>36400</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -6870,7 +5996,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>118570</v>
@@ -6879,7 +6005,7 @@
         <v>36140</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -6887,7 +6013,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>117493</v>
@@ -6896,7 +6022,7 @@
         <v>35812</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -6913,7 +6039,7 @@
         <v>35673</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -6930,7 +6056,7 @@
         <v>35660</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -6947,7 +6073,7 @@
         <v>34600</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -6964,7 +6090,7 @@
         <v>32500</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -6981,7 +6107,7 @@
         <v>30000</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -6998,7 +6124,7 @@
         <v>29908</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -7006,7 +6132,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>97795</v>
@@ -7015,7 +6141,7 @@
         <v>29808</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -7032,7 +6158,7 @@
         <v>29290</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -7040,7 +6166,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>93645</v>
@@ -7049,7 +6175,7 @@
         <v>28543</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
@@ -7065,20 +6191,975 @@
       <c r="D28" s="3">
         <v>26707</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>27</v>
+      <c r="E28" t="s">
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29">
-        <f>SUBTOTAL(103,Bridges[Type Of Bridge])</f>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47B49F3-776E-4DCB-AD7F-18D242FCF843}">
+  <dimension ref="B1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>540700</v>
+      </c>
+      <c r="D4" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>516132</v>
+      </c>
+      <c r="D5" s="3">
+        <v>157317</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>375407</v>
+      </c>
+      <c r="D6" s="3">
+        <v>114424</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>373000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>380200</v>
+      </c>
+      <c r="D8" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>261588</v>
+      </c>
+      <c r="D9" s="3">
+        <v>79732</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>157982</v>
+      </c>
+      <c r="D11" s="3">
+        <v>48153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>128600</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>126122</v>
+      </c>
+      <c r="D13" s="3">
+        <v>38442</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>123976</v>
+      </c>
+      <c r="D14" s="3">
+        <v>37788</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>120440</v>
+      </c>
+      <c r="D15" s="3">
+        <v>36710</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>119400</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <v>118570</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>117493</v>
+      </c>
+      <c r="D18" s="3">
+        <v>35812</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>117037</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35673</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>116990</v>
+      </c>
+      <c r="D20" s="3">
+        <v>35660</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>113500</v>
+      </c>
+      <c r="D21" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>106600</v>
+      </c>
+      <c r="D22" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3">
+        <v>98000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>98123</v>
+      </c>
+      <c r="D24" s="3">
+        <v>29908</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>97795</v>
+      </c>
+      <c r="D25" s="3">
+        <v>29808</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3">
+        <v>96100</v>
+      </c>
+      <c r="D26" s="3">
+        <v>29290</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3">
+        <v>93645</v>
+      </c>
+      <c r="D27" s="3">
+        <v>28543</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>87621</v>
+      </c>
+      <c r="D28" s="3">
+        <v>26707</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974A7C35-681B-4CB5-8395-FF1D5D389E7B}">
+  <dimension ref="B1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>540700</v>
+      </c>
+      <c r="D4" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>516132</v>
+      </c>
+      <c r="D5" s="3">
+        <v>157317</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>375407</v>
+      </c>
+      <c r="D6" s="3">
+        <v>114424</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>373000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>380200</v>
+      </c>
+      <c r="D8" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>261588</v>
+      </c>
+      <c r="D9" s="3">
+        <v>79732</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>157982</v>
+      </c>
+      <c r="D11" s="3">
+        <v>48153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>128600</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>126122</v>
+      </c>
+      <c r="D13" s="3">
+        <v>38442</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>123976</v>
+      </c>
+      <c r="D14" s="3">
+        <v>37788</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>120440</v>
+      </c>
+      <c r="D15" s="3">
+        <v>36710</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>119400</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <v>118570</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>117493</v>
+      </c>
+      <c r="D18" s="3">
+        <v>35812</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>117037</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35673</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>116990</v>
+      </c>
+      <c r="D20" s="3">
+        <v>35660</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>113500</v>
+      </c>
+      <c r="D21" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>106600</v>
+      </c>
+      <c r="D22" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3">
+        <v>98000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>98123</v>
+      </c>
+      <c r="D24" s="3">
+        <v>29908</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>97795</v>
+      </c>
+      <c r="D25" s="3">
+        <v>29808</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3">
+        <v>96100</v>
+      </c>
+      <c r="D26" s="3">
+        <v>29290</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3">
+        <v>93645</v>
+      </c>
+      <c r="D27" s="3">
+        <v>28543</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>87621</v>
+      </c>
+      <c r="D28" s="3">
+        <v>26707</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7118,50 +7199,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="K1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="N1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>52</v>
+      <c r="Q1" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7175,7 +7256,7 @@
         <v>164800</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -7190,7 +7271,7 @@
         <v>37788</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
@@ -7205,7 +7286,7 @@
         <v>29908</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -7213,7 +7294,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>516132</v>
@@ -7222,7 +7303,7 @@
         <v>157317</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -7237,13 +7318,13 @@
         <v>36710</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="3">
         <v>97795</v>
@@ -7252,7 +7333,7 @@
         <v>29808</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -7269,7 +7350,7 @@
         <v>114424</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -7284,7 +7365,7 @@
         <v>36400</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -7299,7 +7380,7 @@
         <v>29290</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
         <v>8</v>
@@ -7307,7 +7388,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>373000</v>
@@ -7316,13 +7397,13 @@
         <v>113700</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3">
         <v>118570</v>
@@ -7331,13 +7412,13 @@
         <v>36140</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3">
         <v>93645</v>
@@ -7346,7 +7427,7 @@
         <v>28543</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
         <v>1</v>
@@ -7354,7 +7435,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
         <v>380200</v>
@@ -7363,13 +7444,13 @@
         <v>115900</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>117493</v>
@@ -7378,7 +7459,7 @@
         <v>35812</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
         <v>1</v>
@@ -7393,7 +7474,7 @@
         <v>26707</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
@@ -7410,7 +7491,7 @@
         <v>79732</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -7425,7 +7506,7 @@
         <v>35673</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
@@ -7442,7 +7523,7 @@
         <v>54000</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -7457,7 +7538,7 @@
         <v>35660</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
@@ -7474,7 +7555,7 @@
         <v>48153</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -7489,7 +7570,7 @@
         <v>34600</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
@@ -7506,7 +7587,7 @@
         <v>39200</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -7521,7 +7602,7 @@
         <v>32500</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
         <v>4</v>
@@ -7538,7 +7619,7 @@
         <v>38442</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -7553,7 +7634,7 @@
         <v>30000</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
         <v>8</v>
